--- a/DataFiles/FourPoints.xlsx
+++ b/DataFiles/FourPoints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25823"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matches" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="106">
   <si>
     <t>Match #</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Average MMR of Partners</t>
   </si>
   <si>
-    <t>BVM Ratio</t>
-  </si>
-  <si>
     <t>QP points</t>
   </si>
   <si>
@@ -321,13 +318,37 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>64-100</t>
+  </si>
+  <si>
+    <t>24-110</t>
+  </si>
+  <si>
+    <t>23-87</t>
+  </si>
+  <si>
+    <t>24-98</t>
+  </si>
+  <si>
+    <t>0-47</t>
+  </si>
+  <si>
+    <t>28-82</t>
+  </si>
+  <si>
+    <t>0-53</t>
+  </si>
+  <si>
+    <t>0-59</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,8 +378,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,6 +475,78 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3B354"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8E1ACC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAF74E5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF203764"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3366FF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF339966"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -543,7 +643,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -566,6 +666,22 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -906,7 +1022,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -916,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -927,7 +1043,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -958,22 +1074,22 @@
         <v>6</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="M2" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -999,7 +1115,7 @@
         <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="17">
         <v>6272</v>
@@ -1031,7 +1147,7 @@
         <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4">
         <v>6299</v>
@@ -1040,10 +1156,10 @@
         <v>8541</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1069,7 +1185,7 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5">
         <v>9875</v>
@@ -1078,7 +1194,7 @@
         <v>9875</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1104,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6">
         <v>7161</v>
@@ -1116,7 +1232,7 @@
         <v>7161</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1142,7 +1258,7 @@
         <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>4545</v>
@@ -1174,7 +1290,7 @@
         <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I8">
         <v>6299</v>
@@ -1206,7 +1322,7 @@
         <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9">
         <v>8541</v>
@@ -1241,10 +1357,10 @@
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K10">
         <v>6937</v>
@@ -1276,13 +1392,13 @@
         <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11">
         <v>6772</v>
       </c>
       <c r="K11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1308,7 +1424,7 @@
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12">
         <v>6299</v>
@@ -1340,7 +1456,7 @@
         <v>87</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13">
         <v>6772</v>
@@ -1369,13 +1485,13 @@
         <v>31</v>
       </c>
       <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" t="s">
         <v>79</v>
-      </c>
-      <c r="J14" t="s">
-        <v>82</v>
-      </c>
-      <c r="M14" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1401,13 +1517,13 @@
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J15">
         <v>4290</v>
       </c>
       <c r="L15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1433,13 +1549,13 @@
         <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16">
         <v>9793</v>
       </c>
       <c r="L16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1465,10 +1581,10 @@
         <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1494,13 +1610,13 @@
         <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I18">
         <v>6299</v>
       </c>
       <c r="K18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L18">
         <v>4545</v>
@@ -1529,7 +1645,7 @@
         <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I19">
         <v>6272</v>
@@ -1564,13 +1680,13 @@
         <v>40</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K20">
         <v>9793</v>
       </c>
       <c r="M20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1596,7 +1712,7 @@
         <v>68</v>
       </c>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21">
         <v>6210</v>
@@ -1628,13 +1744,13 @@
         <v>86</v>
       </c>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I22">
         <v>7161</v>
       </c>
       <c r="K22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1663,7 +1779,7 @@
         <v>6299</v>
       </c>
       <c r="L23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M23">
         <v>8424</v>
@@ -1692,7 +1808,7 @@
         <v>16</v>
       </c>
       <c r="K24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1718,7 +1834,7 @@
         <v>87</v>
       </c>
       <c r="H25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I25">
         <v>6299</v>
@@ -1784,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1800,41 +1916,657 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>6272</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="20">
+        <v>2211</v>
+      </c>
+      <c r="E2" s="20">
+        <v>89</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="20">
+        <v>18</v>
+      </c>
+      <c r="H2" s="20">
+        <v>1136</v>
+      </c>
+      <c r="I2" s="20">
+        <v>10</v>
+      </c>
+      <c r="J2" s="20">
+        <v>70</v>
+      </c>
+      <c r="K2" s="22" t="str">
+        <f>"1-2"</f>
+        <v>1-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23">
+        <v>6299</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="20">
+        <v>2186</v>
+      </c>
+      <c r="E3" s="20">
+        <v>67</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="20">
+        <v>43</v>
+      </c>
+      <c r="H3" s="20">
+        <v>1163</v>
+      </c>
+      <c r="I3" s="20">
+        <v>8</v>
+      </c>
+      <c r="J3" s="20">
+        <v>104</v>
+      </c>
+      <c r="K3" s="24" t="str">
+        <f>"2-2"</f>
+        <v>2-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25">
+        <v>7161</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1962</v>
+      </c>
+      <c r="E4" s="20">
+        <v>36</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="20">
+        <v>32</v>
+      </c>
+      <c r="H4" s="20">
+        <v>1049</v>
+      </c>
+      <c r="I4" s="20">
+        <v>8</v>
+      </c>
+      <c r="J4" s="20">
+        <v>191</v>
+      </c>
+      <c r="K4" s="24" t="str">
+        <f>"2-1"</f>
+        <v>2-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="26">
+        <v>4546</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="20">
+        <v>1724</v>
+      </c>
+      <c r="E5" s="20">
+        <v>56</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="20">
+        <v>37</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1174</v>
+      </c>
+      <c r="I5" s="20">
+        <v>6</v>
+      </c>
+      <c r="J5" s="20">
+        <v>137</v>
+      </c>
+      <c r="K5" s="27" t="str">
+        <f>"4-1"</f>
+        <v>4-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20">
+        <v>9874</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1591</v>
+      </c>
+      <c r="E6" s="20">
+        <v>24</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="20">
+        <v>25</v>
+      </c>
+      <c r="H6" s="20">
+        <v>1135</v>
+      </c>
+      <c r="I6" s="20">
+        <v>6</v>
+      </c>
+      <c r="J6" s="20">
+        <v>32</v>
+      </c>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28">
+        <v>4290</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="20">
+        <v>1551</v>
+      </c>
+      <c r="E7" s="20">
+        <v>30</v>
+      </c>
+      <c r="F7" s="29">
+        <v>31503</v>
+      </c>
+      <c r="G7" s="20">
+        <v>41</v>
+      </c>
+      <c r="H7" s="20">
+        <v>1153</v>
+      </c>
+      <c r="I7" s="20">
+        <v>4</v>
+      </c>
+      <c r="J7" s="20">
+        <v>115</v>
+      </c>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30">
+        <v>8815</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1317</v>
+      </c>
+      <c r="E8" s="20">
+        <v>22</v>
+      </c>
+      <c r="F8" s="29">
+        <v>20941</v>
+      </c>
+      <c r="G8" s="20">
+        <v>26</v>
+      </c>
+      <c r="H8" s="20">
+        <v>1184</v>
+      </c>
+      <c r="I8" s="20">
+        <v>6</v>
+      </c>
+      <c r="J8" s="20">
+        <v>56</v>
+      </c>
+      <c r="K8" s="31" t="str">
+        <f>"3-1"</f>
+        <v>3-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32">
+        <v>6210</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="20">
+        <v>1307</v>
+      </c>
+      <c r="E9" s="20">
+        <v>29</v>
+      </c>
+      <c r="F9" s="29">
+        <v>20821</v>
+      </c>
+      <c r="G9" s="20">
+        <v>28</v>
+      </c>
+      <c r="H9" s="20">
+        <v>1212</v>
+      </c>
+      <c r="I9" s="20">
+        <v>6</v>
+      </c>
+      <c r="J9" s="20">
+        <v>8</v>
+      </c>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33">
+        <v>9793</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1291</v>
+      </c>
+      <c r="E10" s="20">
+        <v>15</v>
+      </c>
+      <c r="F10" s="29">
+        <v>12966</v>
+      </c>
+      <c r="G10" s="20">
+        <v>14</v>
+      </c>
+      <c r="H10" s="20">
+        <v>1097</v>
+      </c>
+      <c r="I10" s="20">
+        <v>2</v>
+      </c>
+      <c r="J10" s="20">
+        <v>63</v>
+      </c>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20">
+        <v>8541</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1211</v>
+      </c>
+      <c r="E11" s="20">
+        <v>49</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="20">
+        <v>27</v>
+      </c>
+      <c r="H11" s="20">
+        <v>1357</v>
+      </c>
+      <c r="I11" s="20">
+        <v>10</v>
+      </c>
+      <c r="J11" s="20">
+        <v>66</v>
+      </c>
+      <c r="K11" s="22" t="str">
+        <f>"1-1"</f>
+        <v>1-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20">
+        <v>9875</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1091</v>
+      </c>
+      <c r="E12" s="20">
+        <v>16</v>
+      </c>
+      <c r="F12" s="29">
+        <v>42242</v>
+      </c>
+      <c r="G12" s="20">
+        <v>9</v>
+      </c>
+      <c r="H12" s="20">
+        <v>1101</v>
+      </c>
+      <c r="I12" s="20">
+        <v>4</v>
+      </c>
+      <c r="J12" s="20">
+        <v>34</v>
+      </c>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20">
+        <v>5998</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="20">
+        <v>1062</v>
+      </c>
+      <c r="E13" s="20">
+        <v>14</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="20">
+        <v>33</v>
+      </c>
+      <c r="H13" s="20">
+        <v>1138</v>
+      </c>
+      <c r="I13" s="20">
+        <v>4</v>
+      </c>
+      <c r="J13" s="20">
+        <v>-6</v>
+      </c>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20">
+        <v>7079</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="20">
+        <v>859</v>
+      </c>
+      <c r="E14" s="20">
+        <v>25</v>
+      </c>
+      <c r="F14" s="29">
+        <v>13424</v>
+      </c>
+      <c r="G14" s="20">
+        <v>13</v>
+      </c>
+      <c r="H14" s="20">
+        <v>1221</v>
+      </c>
+      <c r="I14" s="20">
+        <v>4</v>
+      </c>
+      <c r="J14" s="20">
+        <v>28</v>
+      </c>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20">
+        <v>6710</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="20">
+        <v>809</v>
+      </c>
+      <c r="E15" s="20">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="20">
+        <v>37</v>
+      </c>
+      <c r="H15" s="20">
+        <v>1183</v>
+      </c>
+      <c r="I15" s="20">
+        <v>2</v>
+      </c>
+      <c r="J15" s="20">
+        <v>2</v>
+      </c>
+      <c r="K15" s="27" t="str">
+        <f>"4-2"</f>
+        <v>4-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="34">
+        <v>4545</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="20">
+        <v>729</v>
+      </c>
+      <c r="E16" s="20">
+        <v>13</v>
+      </c>
+      <c r="F16" s="29">
+        <v>42082</v>
+      </c>
+      <c r="G16" s="20">
+        <v>8</v>
+      </c>
+      <c r="H16" s="20">
+        <v>1195</v>
+      </c>
+      <c r="I16" s="20">
+        <v>2</v>
+      </c>
+      <c r="J16" s="20">
+        <v>58</v>
+      </c>
+      <c r="K16" s="31" t="str">
+        <f>"3-2"</f>
+        <v>3-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="20">
+        <v>16</v>
+      </c>
+      <c r="B17" s="35">
+        <v>6209</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="20">
+        <v>540</v>
+      </c>
+      <c r="E17" s="20">
+        <v>11</v>
+      </c>
+      <c r="F17" s="29">
+        <v>42173</v>
+      </c>
+      <c r="G17" s="20">
+        <v>6</v>
+      </c>
+      <c r="H17" s="20">
+        <v>1140</v>
+      </c>
+      <c r="I17" s="20">
+        <v>2</v>
+      </c>
+      <c r="J17" s="20">
+        <v>57</v>
+      </c>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="20">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20">
+        <v>8424</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="20">
+        <v>522</v>
+      </c>
+      <c r="E18" s="20">
+        <v>12</v>
+      </c>
+      <c r="F18" s="29">
+        <v>19419</v>
+      </c>
+      <c r="G18" s="20">
+        <v>25</v>
+      </c>
+      <c r="H18" s="20">
+        <v>1281</v>
+      </c>
+      <c r="I18" s="20">
+        <v>2</v>
+      </c>
+      <c r="J18" s="20">
+        <v>74</v>
+      </c>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="20">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20">
+        <v>6937</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="20">
+        <v>265</v>
+      </c>
+      <c r="E19" s="20">
+        <v>12</v>
+      </c>
+      <c r="F19" s="29">
+        <v>42177</v>
+      </c>
+      <c r="G19" s="20">
+        <v>8</v>
+      </c>
+      <c r="H19" s="20">
+        <v>1272</v>
+      </c>
+      <c r="I19" s="20">
+        <v>4</v>
+      </c>
+      <c r="J19" s="20">
+        <v>30</v>
+      </c>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1845,7 +2577,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:11">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1894,7 +2626,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1902,7 +2634,7 @@
         <v>5815</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1910,16 +2642,16 @@
         <v>7079</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1927,10 +2659,10 @@
         <v>8424</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1938,22 +2670,22 @@
         <v>4290</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1961,10 +2693,10 @@
         <v>5998</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1972,13 +2704,13 @@
         <v>9874</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1986,16 +2718,16 @@
         <v>9875</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
         <v>53</v>
       </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2003,13 +2735,13 @@
         <v>6710</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2020,10 +2752,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2042,7 +2774,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2050,13 +2782,13 @@
         <v>6210</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2064,16 +2796,16 @@
         <v>6299</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
         <v>66</v>
-      </c>
-      <c r="E15" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2081,16 +2813,16 @@
         <v>7161</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2098,10 +2830,10 @@
         <v>9793</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2109,16 +2841,16 @@
         <v>6272</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2126,13 +2858,13 @@
         <v>8815</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2140,16 +2872,16 @@
         <v>8541</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
         <v>69</v>
-      </c>
-      <c r="E20" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2157,7 +2889,7 @@
         <v>8032</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:6">
